--- a/blog.xlsx
+++ b/blog.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="563">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,15 +35,2183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>슬기쌤의 학교일기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>져니의 수업로그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더키쌤의 교실이야기</t>
+    <t>https://blog.naver.com/keymodest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일매일 어제보다 발전하는 교사가 되어 보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학을 거꾸로 수업한다~!!?? 뭐야??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ckwanghee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈강 선생의 하브루타 수업과 학교생활기록부 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/espoir1962</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초등학교 국악 수업의 모든 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/leepynokio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거꾸로 수업 by 전인오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/technojio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강병선의 수업 창고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/kbs3543</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복한 과학 수업 ~*^^*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/lylia76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합티칭디자인연구소/풍부한맥락적수업나눔연구소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/chun7819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔빛수업기술연구회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/solbit0818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업연구 모음공간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/goeun_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체육 수업과 스포츠 문화 (김의진 샘 체육 수업)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/pestudy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/kmh726</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야매 수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suumphaebom 수업해봄:)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/llyj59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학수업연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mitzi502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경선샘의 수업하는 교실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/kingforpoii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/chleogh1113</t>
+  </si>
+  <si>
+    <t>영어 수업 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학 수업 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/cake1728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/helloween20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 수업, 기술 실습 블로그-Fun Technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/tech_jm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업일기장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/scratchzzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이들 영혼을 만지는 예둘샘의 전학공 수업.현장연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/gtdaniel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/hskwan16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여니쌤의 여느 수학수업 야그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jpr123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 미술수업 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/sooniyo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맑은햇살 즐거운 수업 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/juyoung0312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공역량 교육 PBL 수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/goodboy337</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ourengclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our English Class :: 수업나눔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스포츠를 통해 행복한 체육수업을 꿈꾸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jkb0428</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinyong Kim의 영어수업블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/진용네이버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최선생의 시작하는 미술수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/art_h</t>
+  </si>
+  <si>
+    <t>티볼 이선생님의 티볼수업교실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/masise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협력적 교실 토론과 함께 수다스러운 사회수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/gosoth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>써니샘과 거꾸로 영어수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/sunny2458</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일의 수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jku0107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ulkun2000</t>
+  </si>
+  <si>
+    <t>책읽기와 수업자료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/busrock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육의 정의 (수업 연구, 비평)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경제 수업이 제일 좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/skksucks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐거운 음악수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/sky798282</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발상의 전환! 스토리가 있는 조미료샘의 수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jyunji20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나의 하나뿐인 국어수업하나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/praus2009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노죠쌤의 즐거운 물리수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/nojeeho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍혜린의 명품 보건수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/j527hes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e-PBL 수업설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jjangsuk1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛있는 수업 만들기:)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/wizdom1221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5학년 아이들과 함께하는 즐겁고 신나는 수업 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/skelot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김인섭 체육선생님의 스마트한 수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/skyloveto1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/dajung3814</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다정쌤의 행복한 미술수업</t>
+  </si>
+  <si>
+    <t>수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/bji95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google로 수업을 뒤집다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/vjhyuni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐거이의 행복한 수업 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/chlee1923</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김규성의 체육수업이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jjanggu700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐거운 체육수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/bmoc_one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달팽이 선생님과 함께하는 생각하는 도덕 수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/yellow7338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경열 플립러닝 (거꾸로 수업) 블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/kykim121121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살롱, 수학 수업을 나누는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/aldba1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩쌤과 함께하는 체육수업, 그리고 승마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mimikong09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초등 자존감 수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jiiyoung82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보득솔쌤 이승우쌤 국어 수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/foredu0813</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacherji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/teacherji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjs312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/bjs312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나눔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ksmajy0804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기가팍팍 ♬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ourtechedu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/intothelee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ivara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ivara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가온해Tea.ch님의 블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발명과 창의성 교육의 달인을 꿈꾸며…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/photon10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belle(선경)쌤의 선경지명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/dntjraka75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plumeria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/nomad_traveler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sally쌤의 LIVE, LOVE, LEARN with English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/loveully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjk0300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/cjk0300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flippedclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/flippedclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/bigwizard123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 선생님의 배움 저장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ayk122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trials and Errors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참여하고 소통하며 배우는 행복한 국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/tbtb525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/shinjeon21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shinjeon21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승종이의 봄방학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/sjsu79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bt_paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/bt_paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베니얌얌 블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/sypark1684</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggomssun2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ggomssun2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/fmkih1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요에 의한 블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/nnyong_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권미정의 동화나라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/bunny627</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jiyoon990408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teacher JY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일매일 행복하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/hahyojung516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학쌤의 성장일기:)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jeesoop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자발성, 교육, 유용한 생각들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/kanghann</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키다리 아저씨의 한국사 거꾸로 교실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/island615000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Little Letter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/bbiggu555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끠쌤의 작은 공간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/happyjardin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽉샘과 함께하는 과학세상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/snakeplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/tnbbobbo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일상의 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤정쌤의 국어가 좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/lovegugeo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두의 학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/1korea95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권성지의 블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/rnjstjdwl0103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노아노아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mrchen4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 행복한 Jjossam *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jjossamzzang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여유로운 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/fka9764310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yenho1865</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/yenho1865</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소행성 : 소중하고 행복하고 성실한 우리들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/gedare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일이 반짝반짝★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/cesium99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교실지키미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/rhjooo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>globalove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/globalove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선생블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/yoone0428</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멍멍샘의 교실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/haohao777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real Dreaming Happiness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/heatlove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allma20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/allma20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈나무촌 시절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ctk242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니쌤의 더불어 아름다운 우리 이야기(더,아.우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/chlrudals878</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ohyb50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육과 글쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온천초등학교 2학년 2반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ddiddo1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시시콜콜한 하루 시시콜콜한 기록 -♬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/sweety76940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아름다운 과학탐구 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/beauty_chem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가르치고 글 쓰고 운동하고 가꾸고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/tweb95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전환희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/johnhwanhui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMART한 Teacher들의 SMART한 School만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/steel1479</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수교육 그리고 스마트러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/fumon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇살 학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/cognitivism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴근을 생각하는.............. 출근길을 위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/qoojigi12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경중님의 블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/kkjsnue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JANGRIDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jjangee11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소중한 나, 행복한 우리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jhy8981</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 하늘의 수학이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/hoj415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보름달을 꿈꾸는 상현달 전쌤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/bbunbbun3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성장 중!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/imleeby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박미령의 세상에 밝아 지리! ♡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/gotomedsea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멋진 인생을 위하여(^*^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/hanjungim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sein샘의 English Speaking School</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/dearrodin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게으른 스마트 교육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/inyway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달콩이장의 우주_ 자유로움에 대하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/exibition1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD&amp;PDC_Facil5ᆞEducatorᆞTC / 행복교실9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/thecamel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새벽기차의 질주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/tgtec26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함께 성장하는 행복한 새싹들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/angelcat606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 김선생의 특별한 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/sayyoung2917</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mariah03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대니엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/00700ksh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 골라주는 선생님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/reumiya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리플래닛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/chanchance31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>란쌤 성장일기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/joo2384</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈틀~~대는 과학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/chemchers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아들바보...은정샘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/redfox7753</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혜지쌤 교육 일지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/artedu87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨울나비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/summerfrost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘도 1Cm+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/shanekimedu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원종쌤의 성찰일지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/wjvalor02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육게임으로 행복한 우리 되기!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/unipianism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삶의 질을 높여주는 국어 선생님이 되자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ssssssssssun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력있는 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/dh568</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화하는 종(種)만이 살아남는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/shinekhs1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dorothy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/dorothy0932</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam쌤의 작고 별거없는 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/happyberry47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산 김대길 선생님 교육생각 블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/zespy0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 뼘이라도 꼭 여럿이 함께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/chamkw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간정리 &lt;남미술 남정덕&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/namsolji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fordream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/1004gusdik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하경하은하라아빠의 연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ksm9352</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강물같은 선생님 갓센세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/god-sense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한재중 국어 2학년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/sjy10022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이블티처의 다정한 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ableleader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSamlog_ Day by Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/bazinga0630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈꾸고 도전하기~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mathti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또 하나의 과학교과서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/elementaryscience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배움과 성장의 기쁨♡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jin10073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>♡ '빛'나는 '나'와 우'리' 빛나리 아이들 ♡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/wbslqj38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어코치 르네의 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/kiwi1988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위솔의 도덕, 통일 공부방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/baweesol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지리쌤의 다이어리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/adsw4191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함께 있어 행복한 우리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/kingofnsb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남선생 미술 블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/nhyojin812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mumu819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limsson34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/limsson34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 열매 맺는 좋은 나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/zzong323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誾熱. 고민과 생각. 노력과 열정으로!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/njsj85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2intSSam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/2intssam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發作(renewal 2016. 6. 13.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/styner926</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attitude, dream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/dmsrud9888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일상속의 작은행복 ♥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/image-silver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우광도사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/kgw6262</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찐쌤의 블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/changgoboy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나브로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/아함라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열정,내 삶의 모토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/alswhr85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘 보고, 하늘 보고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/hyj3225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은후이라오슬 교단일지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/enhuilaoshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>♡ Lovely Genie ♥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/sea510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살며 사랑하며 배우며</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ppsun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어.. 그리고 잡동사니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/snij22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로드타는 이샘의 키친</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/manjok1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최쌤의 배움이 자라는 교실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/dhqlt11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jun.T의 신나는 음악실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/hyozuny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>les88210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/les88210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육행정 및 학급경영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/getaplus2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함께 걷는 국어! 어깨동무 배움터!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/lonelydayz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noon5190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/noon5190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해병대전중위(流生)의 블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/iredann2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나다움샘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/euna6446</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sion_Cyon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/cso94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3271866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/p3271866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학은 상식이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/wool613</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sujin3821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/sujin3821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Media, Children and Education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/eduvalen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비 비 드 티 쳐 3 6 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/vivid_2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongpat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/tongpat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Euijun's class diary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/skydream0219</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유쌤의 학급다반사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/yshgg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구공찐&amp;혀녕팔이 사는 이야기♡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/or7raaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열린 마음 빵쌤's 교실 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/codybjy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/rubrub82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그늘없는 파란 나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가치만듦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/makerholic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육의 길로 뚜벅뚜벅 걸어가는 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/kimming94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The grandfather's clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/kimchangsung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸도 마음도 튼튼한 오늘과 내일~!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/rholove1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>♥미술과 감성이 함께하는 광평♥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mandooegg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이준수의 작업실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/leejs123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Today is the youngest day of my life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/loria89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재현중 똥(동민)쌤의 강의실 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/forfunny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정욱쌤의 Real 지리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/perfectroad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가배공장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/hwiyada</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관쌤의 초등역사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ykk209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mathjang0202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각하는 수학교실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kikiss1223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/kikiss1223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taebals21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/taebals21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국콩쌤의 블로그(리얼콩쌤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/helove40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/peterpark777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피러쌤의 중학영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디퍼러닝연구소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/naya7434</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복한 선생님의 공간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/luce13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서툰 걸음을 기록하는 공간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/chocolatetree109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joonsuh Park and his books</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/chopinzee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복한엄쌤의 블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/sendmethere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의여중 역사사랑 6기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/breeze0518</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>okwunho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/okwunho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임쌤의 중국어교실 ♡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/zna520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멸치샘의 버라이어티 체육시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/lsh9872</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길잡이별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/gt_chan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTM's blOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/oopsync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함께 하는 수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/oh3162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도인권교육연구회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/chamhigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담담하게 그러나 든든한 언덕이 되어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/blue2749</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상일중 한문반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/tootooji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비움과 사랑님의블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/chodud2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지연샘의 사랑행전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/teacher1877</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woni's Blog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/woni3969</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해피매쓰 박티쳐의 즐거운 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/bestpjm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고민하는 나. 성장하는 나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jaerry79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLY YOUR DREAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/droniebb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인(仁)과 함께 하는 일상 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/exist798</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함께여서 더 빛나는 학교생활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/lsy21230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장쌤의 꿈DREAM 교실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/rose7s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GT샘의 국어교실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jgt72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽당분필_날쌤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/nalssam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로9단의 톡!톡!톡!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/hero10625</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동도 역사방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/rimanmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/sophistshin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scientific mind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What a FITY.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/whatafity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도담도담 초등교실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ahhcs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재정의 보건 사랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jjlee2304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤정훈선생님의 행복한 교실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/puhahayoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나날이 성장하는 우리들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/abc-xyz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sjpark8364</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/sjpark8364</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*말랑말랑 국어교실*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/sorielhj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배움이 있는 교실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jwtc1565</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온작품읽기로 노닐기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/hinemaru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함께 행복하게 성장하는 교실 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ujini0311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The김상미ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/thatisme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유신고 이경수 과학샘 블로그 입니다~^^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/oermma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호텔주인이 되고싶은 선생님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/tonyjhya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juhyun07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/juhyun07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[교육]섬드리 선생님과 함께 하는 교육 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ubehind83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함께 성장하여 행복한 우리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/keumhee21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈행이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/밤피사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유로운 공부모임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/radiojang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>똘배쌤의 최고의 수학교실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ybl75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo tiene su tiempo.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/midnightjourney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독서 활동 게시판 - 생각 앨범 만들기 공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/eunja007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손박사의 초등얼싸 (Earth Science Education)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ibossson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지리감수성(sensitivity of geography)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/coolstd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 게시물 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -51,6 +2219,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>게시물의 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물의 본문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>게시물의 작성일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,6 +2239,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://blog.naver.com/skh96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송경훈의 학습자 참여형 수업설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,19 +2263,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>전체 게시물 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 명사 수, 주제어 빈도 분석(20위), 워드클라우드, 토픽모델링(LDA), 감정분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>의뢰 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/sgkeng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/rung913</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/thekeyssam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +2279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +2301,15 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -186,22 +2375,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,7 +2711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,10 +2719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -552,69 +2741,3292 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>556</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>8</v>
+        <v>553</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>13</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>547</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>548</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-    </row>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A106" s="4">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A108" s="4">
+        <v>107</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A110" s="4">
+        <v>109</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A112" s="4">
+        <v>111</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A114" s="4">
+        <v>113</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A120" s="4">
+        <v>119</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A122" s="4">
+        <v>121</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A126" s="4">
+        <v>125</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A128" s="4">
+        <v>127</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A134" s="4">
+        <v>133</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A142" s="4">
+        <v>141</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A154" s="4">
+        <v>153</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A156" s="4">
+        <v>155</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A158" s="4">
+        <v>157</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A160" s="4">
+        <v>159</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A162" s="4">
+        <v>161</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A164" s="4">
+        <v>163</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A165" s="4">
+        <v>164</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A166" s="4">
+        <v>165</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A167" s="4">
+        <v>166</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A168" s="4">
+        <v>167</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A169" s="4">
+        <v>168</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A170" s="4">
+        <v>169</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A171" s="4">
+        <v>170</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A172" s="4">
+        <v>171</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A173" s="4">
+        <v>172</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A174" s="4">
+        <v>173</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A175" s="4">
+        <v>174</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A176" s="4">
+        <v>175</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A177" s="4">
+        <v>176</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A178" s="4">
+        <v>177</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A179" s="4">
+        <v>178</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A180" s="4">
+        <v>179</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A181" s="4">
+        <v>180</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A182" s="4">
+        <v>181</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A183" s="4">
+        <v>182</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A184" s="4">
+        <v>183</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A185" s="4">
+        <v>184</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A186" s="4">
+        <v>185</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A187" s="4">
+        <v>186</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A188" s="4">
+        <v>187</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A189" s="4">
+        <v>188</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A190" s="4">
+        <v>189</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A191" s="4">
+        <v>190</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A192" s="4">
+        <v>191</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A193" s="4">
+        <v>192</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A194" s="4">
+        <v>193</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A195" s="4">
+        <v>194</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A196" s="4">
+        <v>195</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A197" s="4">
+        <v>196</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A198" s="4">
+        <v>197</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A199" s="4">
+        <v>198</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A200" s="4">
+        <v>199</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A201" s="4">
+        <v>200</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A202" s="4">
+        <v>201</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A203" s="4">
+        <v>202</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A204" s="4">
+        <v>203</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A205" s="4">
+        <v>204</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A206" s="4">
+        <v>205</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A207" s="4">
+        <v>206</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A208" s="4">
+        <v>207</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A209" s="4">
+        <v>208</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A210" s="4">
+        <v>209</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A211" s="4">
+        <v>210</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A212" s="4">
+        <v>211</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A213" s="4">
+        <v>212</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A214" s="4">
+        <v>213</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A215" s="4">
+        <v>214</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A216" s="4">
+        <v>215</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A217" s="4">
+        <v>216</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A218" s="4">
+        <v>217</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A219" s="4">
+        <v>218</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A220" s="4">
+        <v>219</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A221" s="4">
+        <v>220</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A222" s="4">
+        <v>221</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A223" s="4">
+        <v>222</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A224" s="4">
+        <v>223</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A225" s="4">
+        <v>224</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A226" s="4">
+        <v>225</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A227" s="4">
+        <v>226</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A228" s="4">
+        <v>227</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A229" s="4">
+        <v>228</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A230" s="4">
+        <v>229</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A231" s="4">
+        <v>230</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A232" s="4">
+        <v>231</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A233" s="4">
+        <v>232</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A234" s="4">
+        <v>233</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A235" s="4">
+        <v>234</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A236" s="4">
+        <v>235</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A237" s="4">
+        <v>236</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A238" s="4">
+        <v>237</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A239" s="4">
+        <v>238</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A240" s="4">
+        <v>239</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A241" s="4">
+        <v>240</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A242" s="4">
+        <v>241</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A243" s="4">
+        <v>242</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A244" s="4">
+        <v>243</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A245" s="4">
+        <v>244</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A246" s="4">
+        <v>245</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A247" s="4">
+        <v>246</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A248" s="4">
+        <v>247</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A249" s="4">
+        <v>248</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A250" s="4">
+        <v>249</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A251" s="4">
+        <v>250</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A252" s="4">
+        <v>251</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A253" s="4">
+        <v>252</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A254" s="4">
+        <v>253</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A255" s="4">
+        <v>254</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A256" s="4">
+        <v>255</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A257" s="4">
+        <v>256</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A258" s="4">
+        <v>257</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A259" s="4">
+        <v>258</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A260" s="4">
+        <v>259</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A261" s="4">
+        <v>260</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A262" s="4">
+        <v>261</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A263" s="4">
+        <v>262</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A264" s="4">
+        <v>263</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A265" s="4">
+        <v>264</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A266" s="4">
+        <v>265</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A267" s="4">
+        <v>266</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A268" s="4">
+        <v>267</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A269" s="4">
+        <v>268</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A270" s="4">
+        <v>269</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A271" s="4">
+        <v>270</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A272" s="4">
+        <v>271</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A273" s="4">
+        <v>272</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A274" s="4">
+        <v>273</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A275" s="4">
+        <v>274</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A276" s="2"/>
+    </row>
+    <row r="277" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A277" s="2"/>
+    </row>
+    <row r="278" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A278" s="2"/>
+    </row>
+    <row r="279" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A279" s="2"/>
+    </row>
+    <row r="280" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A280" s="2"/>
+    </row>
+    <row r="281" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A281" s="2"/>
+    </row>
+    <row r="282" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A282" s="2"/>
+    </row>
+    <row r="283" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A283" s="2"/>
+    </row>
+    <row r="284" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A284" s="2"/>
+    </row>
+    <row r="285" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A285" s="2"/>
+    </row>
+    <row r="286" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A286" s="2"/>
+    </row>
+    <row r="287" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A287" s="2"/>
+    </row>
+    <row r="288" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A288" s="2"/>
+    </row>
+    <row r="289" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A289" s="2"/>
+    </row>
+    <row r="290" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A290" s="2"/>
+    </row>
+    <row r="291" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A291" s="2"/>
+    </row>
+    <row r="292" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A292" s="2"/>
+    </row>
+    <row r="293" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A293" s="2"/>
+    </row>
+    <row r="294" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A294" s="2"/>
+    </row>
+    <row r="295" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A295" s="2"/>
+    </row>
+    <row r="296" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A296" s="2"/>
+    </row>
+    <row r="297" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A297" s="2"/>
+    </row>
+    <row r="298" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A298" s="2"/>
+    </row>
+    <row r="299" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A299" s="2"/>
+    </row>
+    <row r="300" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A300" s="2"/>
+    </row>
+    <row r="301" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A301" s="2"/>
+    </row>
+    <row r="302" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A302" s="2"/>
+    </row>
+    <row r="303" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A303" s="2"/>
+    </row>
+    <row r="304" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A304" s="2"/>
+    </row>
+    <row r="305" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A305" s="2"/>
+    </row>
+    <row r="306" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A306" s="2"/>
+    </row>
+    <row r="307" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A307" s="2"/>
+    </row>
+    <row r="308" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A308" s="2"/>
+    </row>
+    <row r="309" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A309" s="2"/>
+    </row>
+    <row r="310" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A310" s="2"/>
+    </row>
+    <row r="311" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A311" s="2"/>
+    </row>
+    <row r="312" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A312" s="2"/>
+    </row>
+    <row r="313" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A313" s="2"/>
+    </row>
+    <row r="314" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A314" s="2"/>
+    </row>
+    <row r="315" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A315" s="2"/>
+    </row>
+    <row r="316" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A316" s="2"/>
+    </row>
+    <row r="317" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A317" s="2"/>
+    </row>
+    <row r="318" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A318" s="2"/>
+    </row>
+    <row r="319" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A319" s="2"/>
+    </row>
+    <row r="320" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A320" s="2"/>
+    </row>
+    <row r="321" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A321" s="2"/>
+    </row>
+    <row r="322" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A322" s="2"/>
+    </row>
+    <row r="323" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A323" s="2"/>
+    </row>
+    <row r="324" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A324" s="2"/>
+    </row>
+    <row r="325" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A325" s="2"/>
+    </row>
+    <row r="326" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A326" s="2"/>
+    </row>
+    <row r="327" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A327" s="2"/>
+    </row>
+    <row r="328" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A328" s="2"/>
+    </row>
+    <row r="329" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A329" s="2"/>
+    </row>
+    <row r="330" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A330" s="2"/>
+    </row>
+    <row r="331" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A331" s="2"/>
+    </row>
+    <row r="332" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A332" s="2"/>
+    </row>
+    <row r="333" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A333" s="2"/>
+    </row>
+    <row r="334" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A334" s="2"/>
+    </row>
+    <row r="335" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A335" s="2"/>
+    </row>
+    <row r="336" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A336" s="2"/>
+    </row>
+    <row r="337" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A337" s="2"/>
+    </row>
+    <row r="338" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A338" s="2"/>
+    </row>
+    <row r="339" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A339" s="2"/>
+    </row>
+    <row r="340" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A340" s="2"/>
+    </row>
+    <row r="341" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A341" s="2"/>
+    </row>
+    <row r="342" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A342" s="2"/>
+    </row>
+    <row r="343" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A343" s="2"/>
+    </row>
+    <row r="344" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A344" s="2"/>
+    </row>
+    <row r="345" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A345" s="2"/>
+    </row>
+    <row r="346" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A346" s="2"/>
+    </row>
+    <row r="347" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A347" s="2"/>
+    </row>
+    <row r="348" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A348" s="2"/>
+    </row>
+    <row r="349" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A349" s="2"/>
+    </row>
+    <row r="350" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A350" s="2"/>
+    </row>
+    <row r="351" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
@@ -622,10 +6034,282 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
+    <hyperlink ref="C23" r:id="rId22"/>
+    <hyperlink ref="C24" r:id="rId23"/>
+    <hyperlink ref="C25" r:id="rId24"/>
+    <hyperlink ref="C26" r:id="rId25"/>
+    <hyperlink ref="C27" r:id="rId26"/>
+    <hyperlink ref="C28" r:id="rId27"/>
+    <hyperlink ref="C29" r:id="rId28"/>
+    <hyperlink ref="C30" r:id="rId29"/>
+    <hyperlink ref="C31" r:id="rId30"/>
+    <hyperlink ref="C32" r:id="rId31"/>
+    <hyperlink ref="C33" r:id="rId32"/>
+    <hyperlink ref="C34" r:id="rId33"/>
+    <hyperlink ref="C35" r:id="rId34"/>
+    <hyperlink ref="C36" r:id="rId35"/>
+    <hyperlink ref="C37" r:id="rId36"/>
+    <hyperlink ref="C38" r:id="rId37"/>
+    <hyperlink ref="C39" r:id="rId38"/>
+    <hyperlink ref="C40" r:id="rId39"/>
+    <hyperlink ref="C41" r:id="rId40"/>
+    <hyperlink ref="C42" r:id="rId41"/>
+    <hyperlink ref="C43" r:id="rId42"/>
+    <hyperlink ref="C44" r:id="rId43"/>
+    <hyperlink ref="C45" r:id="rId44"/>
+    <hyperlink ref="C46" r:id="rId45"/>
+    <hyperlink ref="C47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47" display="https://blog.naver.com/dajung3814"/>
+    <hyperlink ref="C48" r:id="rId48"/>
+    <hyperlink ref="C49" r:id="rId49"/>
+    <hyperlink ref="C50" r:id="rId50"/>
+    <hyperlink ref="C51" r:id="rId51"/>
+    <hyperlink ref="C52" r:id="rId52"/>
+    <hyperlink ref="C53" r:id="rId53"/>
+    <hyperlink ref="C54" r:id="rId54"/>
+    <hyperlink ref="C55" r:id="rId55"/>
+    <hyperlink ref="C56" r:id="rId56"/>
+    <hyperlink ref="C57" r:id="rId57"/>
+    <hyperlink ref="C58" r:id="rId58"/>
+    <hyperlink ref="C59" r:id="rId59"/>
+    <hyperlink ref="C60" r:id="rId60"/>
+    <hyperlink ref="C61" r:id="rId61"/>
+    <hyperlink ref="C62" r:id="rId62"/>
+    <hyperlink ref="C63" r:id="rId63"/>
+    <hyperlink ref="C64" r:id="rId64"/>
+    <hyperlink ref="C65" r:id="rId65"/>
+    <hyperlink ref="C66" r:id="rId66"/>
+    <hyperlink ref="C67" r:id="rId67"/>
+    <hyperlink ref="C68" r:id="rId68"/>
+    <hyperlink ref="C69" r:id="rId69"/>
+    <hyperlink ref="C70" r:id="rId70"/>
+    <hyperlink ref="C71" r:id="rId71"/>
+    <hyperlink ref="C72" r:id="rId72"/>
+    <hyperlink ref="C73" r:id="rId73"/>
+    <hyperlink ref="C74" r:id="rId74"/>
+    <hyperlink ref="C75" r:id="rId75"/>
+    <hyperlink ref="C76" r:id="rId76"/>
+    <hyperlink ref="C77" r:id="rId77"/>
+    <hyperlink ref="C78" r:id="rId78"/>
+    <hyperlink ref="C79" r:id="rId79"/>
+    <hyperlink ref="C80" r:id="rId80"/>
+    <hyperlink ref="C81" r:id="rId81"/>
+    <hyperlink ref="C82" r:id="rId82"/>
+    <hyperlink ref="C83" r:id="rId83"/>
+    <hyperlink ref="C84" r:id="rId84"/>
+    <hyperlink ref="C85" r:id="rId85"/>
+    <hyperlink ref="C86" r:id="rId86"/>
+    <hyperlink ref="C87" r:id="rId87"/>
+    <hyperlink ref="C88" r:id="rId88"/>
+    <hyperlink ref="C89" r:id="rId89"/>
+    <hyperlink ref="C90" r:id="rId90"/>
+    <hyperlink ref="C91" r:id="rId91"/>
+    <hyperlink ref="C92" r:id="rId92"/>
+    <hyperlink ref="C93" r:id="rId93"/>
+    <hyperlink ref="C94" r:id="rId94"/>
+    <hyperlink ref="C95" r:id="rId95"/>
+    <hyperlink ref="C96" r:id="rId96"/>
+    <hyperlink ref="C97" r:id="rId97"/>
+    <hyperlink ref="C98" r:id="rId98"/>
+    <hyperlink ref="C99" r:id="rId99"/>
+    <hyperlink ref="C100" r:id="rId100"/>
+    <hyperlink ref="C101" r:id="rId101"/>
+    <hyperlink ref="C102" r:id="rId102"/>
+    <hyperlink ref="C103" r:id="rId103"/>
+    <hyperlink ref="C104" r:id="rId104"/>
+    <hyperlink ref="C105" r:id="rId105"/>
+    <hyperlink ref="C106" r:id="rId106"/>
+    <hyperlink ref="C107" r:id="rId107"/>
+    <hyperlink ref="C108" r:id="rId108"/>
+    <hyperlink ref="C109" r:id="rId109"/>
+    <hyperlink ref="C110" r:id="rId110"/>
+    <hyperlink ref="C111" r:id="rId111"/>
+    <hyperlink ref="C112" r:id="rId112"/>
+    <hyperlink ref="C113" r:id="rId113"/>
+    <hyperlink ref="C114" r:id="rId114"/>
+    <hyperlink ref="C115" r:id="rId115"/>
+    <hyperlink ref="C116" r:id="rId116"/>
+    <hyperlink ref="C117" r:id="rId117"/>
+    <hyperlink ref="C118" r:id="rId118"/>
+    <hyperlink ref="C119" r:id="rId119"/>
+    <hyperlink ref="C120" r:id="rId120"/>
+    <hyperlink ref="C121" r:id="rId121"/>
+    <hyperlink ref="C122" r:id="rId122"/>
+    <hyperlink ref="C123" r:id="rId123"/>
+    <hyperlink ref="C124" r:id="rId124"/>
+    <hyperlink ref="C125" r:id="rId125"/>
+    <hyperlink ref="C126" r:id="rId126"/>
+    <hyperlink ref="C127" r:id="rId127"/>
+    <hyperlink ref="C128" r:id="rId128"/>
+    <hyperlink ref="C129" r:id="rId129"/>
+    <hyperlink ref="C130" r:id="rId130"/>
+    <hyperlink ref="C131" r:id="rId131"/>
+    <hyperlink ref="C132" r:id="rId132"/>
+    <hyperlink ref="C133" r:id="rId133"/>
+    <hyperlink ref="C134" r:id="rId134"/>
+    <hyperlink ref="C135" r:id="rId135"/>
+    <hyperlink ref="C136" r:id="rId136"/>
+    <hyperlink ref="C137" r:id="rId137"/>
+    <hyperlink ref="C138" r:id="rId138"/>
+    <hyperlink ref="C139" r:id="rId139"/>
+    <hyperlink ref="C140" r:id="rId140"/>
+    <hyperlink ref="C141" r:id="rId141"/>
+    <hyperlink ref="C142" r:id="rId142"/>
+    <hyperlink ref="C143" r:id="rId143"/>
+    <hyperlink ref="C144" r:id="rId144"/>
+    <hyperlink ref="C145" r:id="rId145"/>
+    <hyperlink ref="C146" r:id="rId146"/>
+    <hyperlink ref="C147" r:id="rId147"/>
+    <hyperlink ref="C148" r:id="rId148"/>
+    <hyperlink ref="C149" r:id="rId149"/>
+    <hyperlink ref="C150" r:id="rId150"/>
+    <hyperlink ref="C151" r:id="rId151"/>
+    <hyperlink ref="C152" r:id="rId152"/>
+    <hyperlink ref="C153" r:id="rId153"/>
+    <hyperlink ref="C154" r:id="rId154"/>
+    <hyperlink ref="C155" r:id="rId155"/>
+    <hyperlink ref="C156" r:id="rId156"/>
+    <hyperlink ref="C157" r:id="rId157"/>
+    <hyperlink ref="C158" r:id="rId158"/>
+    <hyperlink ref="C159" r:id="rId159"/>
+    <hyperlink ref="C160" r:id="rId160"/>
+    <hyperlink ref="C161" r:id="rId161"/>
+    <hyperlink ref="C162" r:id="rId162"/>
+    <hyperlink ref="C163" r:id="rId163"/>
+    <hyperlink ref="C164" r:id="rId164"/>
+    <hyperlink ref="C165" r:id="rId165"/>
+    <hyperlink ref="C166" r:id="rId166"/>
+    <hyperlink ref="C167" r:id="rId167"/>
+    <hyperlink ref="C168" r:id="rId168"/>
+    <hyperlink ref="C169" r:id="rId169"/>
+    <hyperlink ref="C170" r:id="rId170"/>
+    <hyperlink ref="C171" r:id="rId171"/>
+    <hyperlink ref="C172" r:id="rId172"/>
+    <hyperlink ref="C173" r:id="rId173"/>
+    <hyperlink ref="C174" r:id="rId174"/>
+    <hyperlink ref="C175" r:id="rId175"/>
+    <hyperlink ref="C176" r:id="rId176"/>
+    <hyperlink ref="C177" r:id="rId177"/>
+    <hyperlink ref="C178" r:id="rId178"/>
+    <hyperlink ref="C179" r:id="rId179"/>
+    <hyperlink ref="C180" r:id="rId180"/>
+    <hyperlink ref="C181" r:id="rId181"/>
+    <hyperlink ref="C182" r:id="rId182"/>
+    <hyperlink ref="C183" r:id="rId183"/>
+    <hyperlink ref="C184" r:id="rId184"/>
+    <hyperlink ref="C185" r:id="rId185"/>
+    <hyperlink ref="C186" r:id="rId186"/>
+    <hyperlink ref="C187" r:id="rId187"/>
+    <hyperlink ref="C188" r:id="rId188"/>
+    <hyperlink ref="C189" r:id="rId189"/>
+    <hyperlink ref="C190" r:id="rId190"/>
+    <hyperlink ref="C191" r:id="rId191"/>
+    <hyperlink ref="C192" r:id="rId192"/>
+    <hyperlink ref="C193" r:id="rId193"/>
+    <hyperlink ref="C194" r:id="rId194"/>
+    <hyperlink ref="C195" r:id="rId195"/>
+    <hyperlink ref="C196" r:id="rId196"/>
+    <hyperlink ref="C197" r:id="rId197"/>
+    <hyperlink ref="C198" r:id="rId198"/>
+    <hyperlink ref="C199" r:id="rId199"/>
+    <hyperlink ref="C200" r:id="rId200"/>
+    <hyperlink ref="C201" r:id="rId201"/>
+    <hyperlink ref="C202" r:id="rId202"/>
+    <hyperlink ref="C203" r:id="rId203"/>
+    <hyperlink ref="C204" r:id="rId204"/>
+    <hyperlink ref="C205" r:id="rId205"/>
+    <hyperlink ref="C206" r:id="rId206"/>
+    <hyperlink ref="C207" r:id="rId207"/>
+    <hyperlink ref="C208" r:id="rId208"/>
+    <hyperlink ref="C209" r:id="rId209"/>
+    <hyperlink ref="C210" r:id="rId210"/>
+    <hyperlink ref="C211" r:id="rId211"/>
+    <hyperlink ref="C212" r:id="rId212"/>
+    <hyperlink ref="C213" r:id="rId213"/>
+    <hyperlink ref="C214" r:id="rId214"/>
+    <hyperlink ref="C215" r:id="rId215"/>
+    <hyperlink ref="C216" r:id="rId216"/>
+    <hyperlink ref="C217" r:id="rId217"/>
+    <hyperlink ref="C218" r:id="rId218"/>
+    <hyperlink ref="C219" r:id="rId219"/>
+    <hyperlink ref="C220" r:id="rId220"/>
+    <hyperlink ref="C221" r:id="rId221"/>
+    <hyperlink ref="C222" r:id="rId222"/>
+    <hyperlink ref="C223" r:id="rId223"/>
+    <hyperlink ref="C224" r:id="rId224"/>
+    <hyperlink ref="C225" r:id="rId225"/>
+    <hyperlink ref="C226" r:id="rId226"/>
+    <hyperlink ref="C227" r:id="rId227"/>
+    <hyperlink ref="C228" r:id="rId228"/>
+    <hyperlink ref="C229" r:id="rId229"/>
+    <hyperlink ref="C230" r:id="rId230"/>
+    <hyperlink ref="C231" r:id="rId231"/>
+    <hyperlink ref="C232" r:id="rId232"/>
+    <hyperlink ref="C233" r:id="rId233"/>
+    <hyperlink ref="C234" r:id="rId234"/>
+    <hyperlink ref="C235" r:id="rId235"/>
+    <hyperlink ref="C236" r:id="rId236"/>
+    <hyperlink ref="C237" r:id="rId237"/>
+    <hyperlink ref="C238" r:id="rId238"/>
+    <hyperlink ref="C239" r:id="rId239"/>
+    <hyperlink ref="C240" r:id="rId240"/>
+    <hyperlink ref="C241" r:id="rId241"/>
+    <hyperlink ref="C242" r:id="rId242"/>
+    <hyperlink ref="C243" r:id="rId243"/>
+    <hyperlink ref="C244" r:id="rId244"/>
+    <hyperlink ref="C245" r:id="rId245"/>
+    <hyperlink ref="C246" r:id="rId246"/>
+    <hyperlink ref="C247" r:id="rId247"/>
+    <hyperlink ref="C248" r:id="rId248"/>
+    <hyperlink ref="C249" r:id="rId249"/>
+    <hyperlink ref="C250" r:id="rId250"/>
+    <hyperlink ref="C251" r:id="rId251"/>
+    <hyperlink ref="C252" r:id="rId252"/>
+    <hyperlink ref="C253" r:id="rId253"/>
+    <hyperlink ref="C254" r:id="rId254"/>
+    <hyperlink ref="C255" r:id="rId255"/>
+    <hyperlink ref="C256" r:id="rId256"/>
+    <hyperlink ref="C257" r:id="rId257"/>
+    <hyperlink ref="C258" r:id="rId258"/>
+    <hyperlink ref="C259" r:id="rId259"/>
+    <hyperlink ref="C260" r:id="rId260"/>
+    <hyperlink ref="C261" r:id="rId261"/>
+    <hyperlink ref="C262" r:id="rId262"/>
+    <hyperlink ref="C263" r:id="rId263"/>
+    <hyperlink ref="C264" r:id="rId264"/>
+    <hyperlink ref="C265" r:id="rId265"/>
+    <hyperlink ref="C266" r:id="rId266"/>
+    <hyperlink ref="C267" r:id="rId267"/>
+    <hyperlink ref="C268" r:id="rId268"/>
+    <hyperlink ref="C269" r:id="rId269"/>
+    <hyperlink ref="C270" r:id="rId270"/>
+    <hyperlink ref="C271" r:id="rId271"/>
+    <hyperlink ref="C272" r:id="rId272"/>
+    <hyperlink ref="C273" r:id="rId273"/>
+    <hyperlink ref="C274" r:id="rId274"/>
+    <hyperlink ref="C275" r:id="rId275"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId276"/>
 </worksheet>
 </file>
--- a/blog.xlsx
+++ b/blog.xlsx
@@ -25,69 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="549">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/keymodest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매일매일 어제보다 발전하는 교사가 되어 보자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화학을 거꾸로 수업한다~!!?? 뭐야??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/ckwanghee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꿈강 선생의 하브루타 수업과 학교생활기록부 이야기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/espoir1962</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초등학교 국악 수업의 모든 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/leepynokio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거꾸로 수업 by 전인오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/technojio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강병선의 수업 창고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/kbs3543</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행복한 과학 수업 ~*^^*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/lylia76</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2711,7 +2655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2722,7 +2666,7 @@
   <dimension ref="A1:H351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -2741,38 +2685,38 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -2781,15 +2725,15 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -2798,15 +2742,15 @@
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
@@ -2815,32 +2759,32 @@
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -2849,15 +2793,15 @@
         <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>14</v>
@@ -2868,7 +2812,7 @@
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -2879,18 +2823,18 @@
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>20</v>
@@ -2901,7 +2845,7 @@
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>22</v>
@@ -2912,18 +2856,18 @@
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>26</v>
@@ -2934,7 +2878,7 @@
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>28</v>
@@ -2945,29 +2889,29 @@
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>34</v>
@@ -2978,7 +2922,7 @@
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>36</v>
@@ -2989,7 +2933,7 @@
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>38</v>
@@ -3000,18 +2944,18 @@
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>42</v>
@@ -3022,18 +2966,18 @@
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>46</v>
@@ -3044,7 +2988,7 @@
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>48</v>
@@ -3055,7 +2999,7 @@
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>50</v>
@@ -3066,7 +3010,7 @@
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>52</v>
@@ -3077,40 +3021,40 @@
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>60</v>
@@ -3121,7 +3065,7 @@
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>62</v>
@@ -3132,7 +3076,7 @@
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>64</v>
@@ -3143,7 +3087,7 @@
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>66</v>
@@ -3154,7 +3098,7 @@
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>68</v>
@@ -3165,29 +3109,29 @@
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A37" s="4">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>74</v>
@@ -3198,7 +3142,7 @@
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>76</v>
@@ -3209,7 +3153,7 @@
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>78</v>
@@ -3220,18 +3164,18 @@
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A41" s="4">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>82</v>
@@ -3242,7 +3186,7 @@
     </row>
     <row r="43" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>84</v>
@@ -3253,7 +3197,7 @@
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>86</v>
@@ -3264,7 +3208,7 @@
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A45" s="4">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>88</v>
@@ -3275,7 +3219,7 @@
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A46" s="4">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>90</v>
@@ -3286,7 +3230,7 @@
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>92</v>
@@ -3297,18 +3241,18 @@
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A48" s="4">
-        <v>47</v>
-      </c>
-      <c r="B48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A49" s="4">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>96</v>
@@ -3319,7 +3263,7 @@
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A50" s="4">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>98</v>
@@ -3330,7 +3274,7 @@
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A51" s="4">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>100</v>
@@ -3341,7 +3285,7 @@
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A52" s="4">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>102</v>
@@ -3352,7 +3296,7 @@
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>104</v>
@@ -3363,7 +3307,7 @@
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>106</v>
@@ -3374,7 +3318,7 @@
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>108</v>
@@ -3385,7 +3329,7 @@
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>110</v>
@@ -3396,29 +3340,29 @@
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A57" s="4">
-        <v>56</v>
-      </c>
-      <c r="B57" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>116</v>
@@ -3429,7 +3373,7 @@
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>118</v>
@@ -3440,7 +3384,7 @@
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>120</v>
@@ -3451,7 +3395,7 @@
     </row>
     <row r="62" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A62" s="4">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>122</v>
@@ -3462,7 +3406,7 @@
     </row>
     <row r="63" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A63" s="4">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>124</v>
@@ -3473,21 +3417,21 @@
     </row>
     <row r="64" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A64" s="4">
-        <v>63</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>129</v>
+        <v>70</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A65" s="4">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>128</v>
@@ -3495,18 +3439,18 @@
     </row>
     <row r="66" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>132</v>
@@ -3517,18 +3461,18 @@
     </row>
     <row r="68" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A69" s="4">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>136</v>
@@ -3539,7 +3483,7 @@
     </row>
     <row r="70" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>138</v>
@@ -3550,7 +3494,7 @@
     </row>
     <row r="71" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>140</v>
@@ -3561,43 +3505,41 @@
     </row>
     <row r="72" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A72" s="4">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A73" s="4">
-        <v>72</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B73" s="5"/>
       <c r="C73" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A74" s="4">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A75" s="4">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>148</v>
@@ -3605,60 +3547,62 @@
     </row>
     <row r="76" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A76" s="4">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A77" s="4">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A78" s="4">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A79" s="4">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A80" s="4">
-        <v>79</v>
-      </c>
-      <c r="B80" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="C80" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A81" s="4">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>159</v>
@@ -3669,7 +3613,7 @@
     </row>
     <row r="82" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A82" s="4">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>161</v>
@@ -3680,29 +3624,29 @@
     </row>
     <row r="83" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A83" s="4">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A84" s="4">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A85" s="4">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>167</v>
@@ -3713,7 +3657,7 @@
     </row>
     <row r="86" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A86" s="4">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>169</v>
@@ -3724,7 +3668,7 @@
     </row>
     <row r="87" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A87" s="4">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>171</v>
@@ -3735,7 +3679,7 @@
     </row>
     <row r="88" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A88" s="4">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>173</v>
@@ -3746,7 +3690,7 @@
     </row>
     <row r="89" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A89" s="4">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>175</v>
@@ -3757,7 +3701,7 @@
     </row>
     <row r="90" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A90" s="4">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>177</v>
@@ -3768,18 +3712,18 @@
     </row>
     <row r="91" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A91" s="4">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A92" s="4">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>181</v>
@@ -3790,7 +3734,7 @@
     </row>
     <row r="93" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A93" s="4">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>183</v>
@@ -3801,7 +3745,7 @@
     </row>
     <row r="94" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A94" s="4">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>185</v>
@@ -3812,7 +3756,7 @@
     </row>
     <row r="95" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A95" s="4">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>187</v>
@@ -3823,7 +3767,7 @@
     </row>
     <row r="96" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A96" s="4">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>189</v>
@@ -3834,7 +3778,7 @@
     </row>
     <row r="97" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A97" s="4">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>191</v>
@@ -3845,7 +3789,7 @@
     </row>
     <row r="98" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A98" s="4">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>193</v>
@@ -3856,7 +3800,7 @@
     </row>
     <row r="99" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A99" s="4">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>195</v>
@@ -3867,7 +3811,7 @@
     </row>
     <row r="100" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A100" s="4">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>197</v>
@@ -3878,7 +3822,7 @@
     </row>
     <row r="101" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A101" s="4">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>199</v>
@@ -3889,18 +3833,18 @@
     </row>
     <row r="102" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A102" s="4">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A103" s="4">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>203</v>
@@ -3911,7 +3855,7 @@
     </row>
     <row r="104" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A104" s="4">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>205</v>
@@ -3922,7 +3866,7 @@
     </row>
     <row r="105" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A105" s="4">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>207</v>
@@ -3933,7 +3877,7 @@
     </row>
     <row r="106" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A106" s="4">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>209</v>
@@ -3944,7 +3888,7 @@
     </row>
     <row r="107" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A107" s="4">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>211</v>
@@ -3955,7 +3899,7 @@
     </row>
     <row r="108" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A108" s="4">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>213</v>
@@ -3966,18 +3910,18 @@
     </row>
     <row r="109" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A109" s="4">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A110" s="4">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>217</v>
@@ -3988,7 +3932,7 @@
     </row>
     <row r="111" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A111" s="4">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>219</v>
@@ -3999,7 +3943,7 @@
     </row>
     <row r="112" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A112" s="4">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>221</v>
@@ -4010,7 +3954,7 @@
     </row>
     <row r="113" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A113" s="4">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>223</v>
@@ -4021,7 +3965,7 @@
     </row>
     <row r="114" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A114" s="4">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>225</v>
@@ -4032,7 +3976,7 @@
     </row>
     <row r="115" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A115" s="4">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>227</v>
@@ -4043,7 +3987,7 @@
     </row>
     <row r="116" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A116" s="4">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>229</v>
@@ -4054,7 +3998,7 @@
     </row>
     <row r="117" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A117" s="4">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>231</v>
@@ -4065,7 +4009,7 @@
     </row>
     <row r="118" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A118" s="4">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>233</v>
@@ -4076,7 +4020,7 @@
     </row>
     <row r="119" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A119" s="4">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>235</v>
@@ -4087,7 +4031,7 @@
     </row>
     <row r="120" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A120" s="4">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>237</v>
@@ -4098,7 +4042,7 @@
     </row>
     <row r="121" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A121" s="4">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>239</v>
@@ -4109,7 +4053,7 @@
     </row>
     <row r="122" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A122" s="4">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>241</v>
@@ -4120,7 +4064,7 @@
     </row>
     <row r="123" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A123" s="4">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>243</v>
@@ -4131,7 +4075,7 @@
     </row>
     <row r="124" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A124" s="4">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>245</v>
@@ -4142,7 +4086,7 @@
     </row>
     <row r="125" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A125" s="4">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>247</v>
@@ -4153,7 +4097,7 @@
     </row>
     <row r="126" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A126" s="4">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>249</v>
@@ -4164,7 +4108,7 @@
     </row>
     <row r="127" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A127" s="4">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>251</v>
@@ -4175,7 +4119,7 @@
     </row>
     <row r="128" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A128" s="4">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>253</v>
@@ -4186,7 +4130,7 @@
     </row>
     <row r="129" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A129" s="4">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>255</v>
@@ -4197,7 +4141,7 @@
     </row>
     <row r="130" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A130" s="4">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>257</v>
@@ -4208,7 +4152,7 @@
     </row>
     <row r="131" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A131" s="4">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>259</v>
@@ -4219,7 +4163,7 @@
     </row>
     <row r="132" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A132" s="4">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>261</v>
@@ -4230,7 +4174,7 @@
     </row>
     <row r="133" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A133" s="4">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>263</v>
@@ -4241,7 +4185,7 @@
     </row>
     <row r="134" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A134" s="4">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>265</v>
@@ -4252,7 +4196,7 @@
     </row>
     <row r="135" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A135" s="4">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>267</v>
@@ -4263,7 +4207,7 @@
     </row>
     <row r="136" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A136" s="4">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>269</v>
@@ -4274,7 +4218,7 @@
     </row>
     <row r="137" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A137" s="4">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>271</v>
@@ -4285,7 +4229,7 @@
     </row>
     <row r="138" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A138" s="4">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>273</v>
@@ -4296,7 +4240,7 @@
     </row>
     <row r="139" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A139" s="4">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>275</v>
@@ -4307,7 +4251,7 @@
     </row>
     <row r="140" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A140" s="4">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>277</v>
@@ -4318,7 +4262,7 @@
     </row>
     <row r="141" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A141" s="4">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>279</v>
@@ -4329,7 +4273,7 @@
     </row>
     <row r="142" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A142" s="4">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>281</v>
@@ -4340,7 +4284,7 @@
     </row>
     <row r="143" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A143" s="4">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>283</v>
@@ -4351,7 +4295,7 @@
     </row>
     <row r="144" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A144" s="4">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>285</v>
@@ -4362,7 +4306,7 @@
     </row>
     <row r="145" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A145" s="4">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>287</v>
@@ -4373,7 +4317,7 @@
     </row>
     <row r="146" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A146" s="4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>289</v>
@@ -4384,7 +4328,7 @@
     </row>
     <row r="147" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A147" s="4">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>291</v>
@@ -4395,7 +4339,7 @@
     </row>
     <row r="148" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A148" s="4">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>293</v>
@@ -4406,7 +4350,7 @@
     </row>
     <row r="149" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A149" s="4">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>295</v>
@@ -4417,7 +4361,7 @@
     </row>
     <row r="150" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A150" s="4">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>297</v>
@@ -4428,7 +4372,7 @@
     </row>
     <row r="151" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A151" s="4">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>299</v>
@@ -4439,7 +4383,7 @@
     </row>
     <row r="152" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A152" s="4">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>301</v>
@@ -4450,7 +4394,7 @@
     </row>
     <row r="153" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A153" s="4">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>303</v>
@@ -4461,7 +4405,7 @@
     </row>
     <row r="154" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A154" s="4">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>305</v>
@@ -4472,7 +4416,7 @@
     </row>
     <row r="155" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A155" s="4">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>307</v>
@@ -4483,7 +4427,7 @@
     </row>
     <row r="156" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A156" s="4">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>309</v>
@@ -4494,7 +4438,7 @@
     </row>
     <row r="157" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A157" s="4">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>311</v>
@@ -4505,7 +4449,7 @@
     </row>
     <row r="158" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A158" s="4">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>313</v>
@@ -4516,7 +4460,7 @@
     </row>
     <row r="159" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A159" s="4">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>315</v>
@@ -4527,7 +4471,7 @@
     </row>
     <row r="160" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A160" s="4">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>317</v>
@@ -4538,7 +4482,7 @@
     </row>
     <row r="161" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A161" s="4">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>319</v>
@@ -4549,7 +4493,7 @@
     </row>
     <row r="162" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A162" s="4">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>321</v>
@@ -4560,7 +4504,7 @@
     </row>
     <row r="163" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A163" s="4">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>323</v>
@@ -4571,7 +4515,7 @@
     </row>
     <row r="164" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A164" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>325</v>
@@ -4582,7 +4526,7 @@
     </row>
     <row r="165" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A165" s="4">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>327</v>
@@ -4593,7 +4537,7 @@
     </row>
     <row r="166" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A166" s="4">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>329</v>
@@ -4604,7 +4548,7 @@
     </row>
     <row r="167" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A167" s="4">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>331</v>
@@ -4615,7 +4559,7 @@
     </row>
     <row r="168" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A168" s="4">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>333</v>
@@ -4626,7 +4570,7 @@
     </row>
     <row r="169" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A169" s="4">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>335</v>
@@ -4637,7 +4581,7 @@
     </row>
     <row r="170" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A170" s="4">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>337</v>
@@ -4648,7 +4592,7 @@
     </row>
     <row r="171" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A171" s="4">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>339</v>
@@ -4659,7 +4603,7 @@
     </row>
     <row r="172" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A172" s="4">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>341</v>
@@ -4670,7 +4614,7 @@
     </row>
     <row r="173" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A173" s="4">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>343</v>
@@ -4681,7 +4625,7 @@
     </row>
     <row r="174" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A174" s="4">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>345</v>
@@ -4692,7 +4636,7 @@
     </row>
     <row r="175" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A175" s="4">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>347</v>
@@ -4703,7 +4647,7 @@
     </row>
     <row r="176" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A176" s="4">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>349</v>
@@ -4714,7 +4658,7 @@
     </row>
     <row r="177" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A177" s="4">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>351</v>
@@ -4725,7 +4669,7 @@
     </row>
     <row r="178" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A178" s="4">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>353</v>
@@ -4736,7 +4680,7 @@
     </row>
     <row r="179" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A179" s="4">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>355</v>
@@ -4747,7 +4691,7 @@
     </row>
     <row r="180" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A180" s="4">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>357</v>
@@ -4758,7 +4702,7 @@
     </row>
     <row r="181" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A181" s="4">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>359</v>
@@ -4769,7 +4713,7 @@
     </row>
     <row r="182" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A182" s="4">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>361</v>
@@ -4780,7 +4724,7 @@
     </row>
     <row r="183" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A183" s="4">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>363</v>
@@ -4791,7 +4735,7 @@
     </row>
     <row r="184" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A184" s="4">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>365</v>
@@ -4802,7 +4746,7 @@
     </row>
     <row r="185" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A185" s="4">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>367</v>
@@ -4813,7 +4757,7 @@
     </row>
     <row r="186" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A186" s="4">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>369</v>
@@ -4824,7 +4768,7 @@
     </row>
     <row r="187" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A187" s="4">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>371</v>
@@ -4835,7 +4779,7 @@
     </row>
     <row r="188" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A188" s="4">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>373</v>
@@ -4846,7 +4790,7 @@
     </row>
     <row r="189" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A189" s="4">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>375</v>
@@ -4857,7 +4801,7 @@
     </row>
     <row r="190" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A190" s="4">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>377</v>
@@ -4868,7 +4812,7 @@
     </row>
     <row r="191" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A191" s="4">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>379</v>
@@ -4879,7 +4823,7 @@
     </row>
     <row r="192" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A192" s="4">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>381</v>
@@ -4890,7 +4834,7 @@
     </row>
     <row r="193" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A193" s="4">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>383</v>
@@ -4901,7 +4845,7 @@
     </row>
     <row r="194" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A194" s="4">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>385</v>
@@ -4912,7 +4856,7 @@
     </row>
     <row r="195" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A195" s="4">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>387</v>
@@ -4923,7 +4867,7 @@
     </row>
     <row r="196" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A196" s="4">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B196" s="5" t="s">
         <v>389</v>
@@ -4934,7 +4878,7 @@
     </row>
     <row r="197" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A197" s="4">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>391</v>
@@ -4945,7 +4889,7 @@
     </row>
     <row r="198" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A198" s="4">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>393</v>
@@ -4956,18 +4900,18 @@
     </row>
     <row r="199" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A199" s="4">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B199" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C199" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="200" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A200" s="4">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>397</v>
@@ -4978,7 +4922,7 @@
     </row>
     <row r="201" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A201" s="4">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>399</v>
@@ -4989,7 +4933,7 @@
     </row>
     <row r="202" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A202" s="4">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>401</v>
@@ -5000,7 +4944,7 @@
     </row>
     <row r="203" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A203" s="4">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>403</v>
@@ -5011,7 +4955,7 @@
     </row>
     <row r="204" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A204" s="4">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B204" s="5" t="s">
         <v>405</v>
@@ -5022,7 +4966,7 @@
     </row>
     <row r="205" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A205" s="4">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>407</v>
@@ -5033,18 +4977,18 @@
     </row>
     <row r="206" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A206" s="4">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B206" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C206" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="207" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A207" s="4">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>411</v>
@@ -5055,7 +4999,7 @@
     </row>
     <row r="208" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A208" s="4">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B208" s="5" t="s">
         <v>413</v>
@@ -5066,7 +5010,7 @@
     </row>
     <row r="209" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A209" s="4">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>415</v>
@@ -5077,7 +5021,7 @@
     </row>
     <row r="210" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A210" s="4">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>417</v>
@@ -5088,18 +5032,18 @@
     </row>
     <row r="211" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A211" s="4">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B211" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C211" s="6" t="s">
         <v>419</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="212" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A212" s="4">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>421</v>
@@ -5110,7 +5054,7 @@
     </row>
     <row r="213" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A213" s="4">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>423</v>
@@ -5121,7 +5065,7 @@
     </row>
     <row r="214" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A214" s="4">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>425</v>
@@ -5132,18 +5076,18 @@
     </row>
     <row r="215" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A215" s="4">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B215" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="216" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A216" s="4">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B216" s="5" t="s">
         <v>429</v>
@@ -5154,7 +5098,7 @@
     </row>
     <row r="217" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A217" s="4">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B217" s="5" t="s">
         <v>431</v>
@@ -5165,18 +5109,18 @@
     </row>
     <row r="218" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A218" s="4">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B218" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C218" s="6" t="s">
         <v>434</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="219" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A219" s="4">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B219" s="5" t="s">
         <v>435</v>
@@ -5187,7 +5131,7 @@
     </row>
     <row r="220" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A220" s="4">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B220" s="5" t="s">
         <v>437</v>
@@ -5198,7 +5142,7 @@
     </row>
     <row r="221" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A221" s="4">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>439</v>
@@ -5209,18 +5153,18 @@
     </row>
     <row r="222" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A222" s="4">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B222" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C222" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="223" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A223" s="4">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>443</v>
@@ -5231,7 +5175,7 @@
     </row>
     <row r="224" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A224" s="4">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B224" s="5" t="s">
         <v>445</v>
@@ -5242,7 +5186,7 @@
     </row>
     <row r="225" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A225" s="4">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>447</v>
@@ -5253,7 +5197,7 @@
     </row>
     <row r="226" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A226" s="4">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B226" s="5" t="s">
         <v>449</v>
@@ -5264,7 +5208,7 @@
     </row>
     <row r="227" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A227" s="4">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>451</v>
@@ -5275,7 +5219,7 @@
     </row>
     <row r="228" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A228" s="4">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B228" s="5" t="s">
         <v>453</v>
@@ -5286,7 +5230,7 @@
     </row>
     <row r="229" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A229" s="4">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>455</v>
@@ -5297,7 +5241,7 @@
     </row>
     <row r="230" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A230" s="4">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>457</v>
@@ -5308,7 +5252,7 @@
     </row>
     <row r="231" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A231" s="4">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>459</v>
@@ -5319,7 +5263,7 @@
     </row>
     <row r="232" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A232" s="4">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>461</v>
@@ -5330,7 +5274,7 @@
     </row>
     <row r="233" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A233" s="4">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>463</v>
@@ -5341,7 +5285,7 @@
     </row>
     <row r="234" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A234" s="4">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>465</v>
@@ -5352,7 +5296,7 @@
     </row>
     <row r="235" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A235" s="4">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>467</v>
@@ -5363,7 +5307,7 @@
     </row>
     <row r="236" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A236" s="4">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>469</v>
@@ -5374,7 +5318,7 @@
     </row>
     <row r="237" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A237" s="4">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>471</v>
@@ -5385,7 +5329,7 @@
     </row>
     <row r="238" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A238" s="4">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>473</v>
@@ -5396,7 +5340,7 @@
     </row>
     <row r="239" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A239" s="4">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>475</v>
@@ -5407,7 +5351,7 @@
     </row>
     <row r="240" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A240" s="4">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B240" s="5" t="s">
         <v>477</v>
@@ -5418,7 +5362,7 @@
     </row>
     <row r="241" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A241" s="4">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>479</v>
@@ -5429,7 +5373,7 @@
     </row>
     <row r="242" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A242" s="4">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B242" s="5" t="s">
         <v>481</v>
@@ -5440,7 +5384,7 @@
     </row>
     <row r="243" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A243" s="4">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B243" s="5" t="s">
         <v>483</v>
@@ -5451,18 +5395,18 @@
     </row>
     <row r="244" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A244" s="4">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B244" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C244" s="6" t="s">
         <v>485</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="245" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A245" s="4">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>487</v>
@@ -5473,7 +5417,7 @@
     </row>
     <row r="246" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A246" s="4">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B246" s="5" t="s">
         <v>489</v>
@@ -5484,7 +5428,7 @@
     </row>
     <row r="247" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A247" s="4">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>491</v>
@@ -5495,7 +5439,7 @@
     </row>
     <row r="248" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A248" s="4">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B248" s="5" t="s">
         <v>493</v>
@@ -5506,7 +5450,7 @@
     </row>
     <row r="249" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A249" s="4">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B249" s="5" t="s">
         <v>495</v>
@@ -5517,7 +5461,7 @@
     </row>
     <row r="250" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A250" s="4">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B250" s="5" t="s">
         <v>497</v>
@@ -5528,18 +5472,18 @@
     </row>
     <row r="251" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A251" s="4">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B251" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C251" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="252" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A252" s="4">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>501</v>
@@ -5550,7 +5494,7 @@
     </row>
     <row r="253" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A253" s="4">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>503</v>
@@ -5561,7 +5505,7 @@
     </row>
     <row r="254" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A254" s="4">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B254" s="5" t="s">
         <v>505</v>
@@ -5572,7 +5516,7 @@
     </row>
     <row r="255" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A255" s="4">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B255" s="5" t="s">
         <v>507</v>
@@ -5583,7 +5527,7 @@
     </row>
     <row r="256" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A256" s="4">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B256" s="5" t="s">
         <v>509</v>
@@ -5594,7 +5538,7 @@
     </row>
     <row r="257" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A257" s="4">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>511</v>
@@ -5605,7 +5549,7 @@
     </row>
     <row r="258" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A258" s="4">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B258" s="5" t="s">
         <v>513</v>
@@ -5616,7 +5560,7 @@
     </row>
     <row r="259" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A259" s="4">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>515</v>
@@ -5627,7 +5571,7 @@
     </row>
     <row r="260" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A260" s="4">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>517</v>
@@ -5638,7 +5582,7 @@
     </row>
     <row r="261" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A261" s="4">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>519</v>
@@ -5649,7 +5593,7 @@
     </row>
     <row r="262" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A262" s="4">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>521</v>
@@ -5660,7 +5604,7 @@
     </row>
     <row r="263" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A263" s="4">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>523</v>
@@ -5671,7 +5615,7 @@
     </row>
     <row r="264" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A264" s="4">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B264" s="5" t="s">
         <v>525</v>
@@ -5682,7 +5626,7 @@
     </row>
     <row r="265" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A265" s="4">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>527</v>
@@ -5693,7 +5637,7 @@
     </row>
     <row r="266" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A266" s="4">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>529</v>
@@ -5704,7 +5648,7 @@
     </row>
     <row r="267" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A267" s="4">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>531</v>
@@ -5715,129 +5659,73 @@
     </row>
     <row r="268" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A268" s="4">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="269" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A269" s="4">
-        <v>268</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>536</v>
-      </c>
+      <c r="A269" s="2"/>
     </row>
     <row r="270" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A270" s="4">
-        <v>269</v>
-      </c>
-      <c r="B270" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="C270" s="6" t="s">
-        <v>538</v>
-      </c>
+      <c r="A270" s="2"/>
     </row>
     <row r="271" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A271" s="4">
-        <v>270</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="C271" s="6" t="s">
-        <v>540</v>
-      </c>
+      <c r="A271" s="2"/>
     </row>
     <row r="272" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A272" s="4">
-        <v>271</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="C272" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A273" s="4">
-        <v>272</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="C273" s="6" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A274" s="4">
-        <v>273</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A275" s="4">
-        <v>274</v>
-      </c>
-      <c r="B275" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A272" s="2"/>
+    </row>
+    <row r="273" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A273" s="2"/>
+    </row>
+    <row r="274" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A274" s="2"/>
+    </row>
+    <row r="275" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A275" s="2"/>
+    </row>
+    <row r="276" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A276" s="2"/>
     </row>
-    <row r="277" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A277" s="2"/>
     </row>
-    <row r="278" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A278" s="2"/>
     </row>
-    <row r="279" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A279" s="2"/>
     </row>
-    <row r="280" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A280" s="2"/>
     </row>
-    <row r="281" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A281" s="2"/>
     </row>
-    <row r="282" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A282" s="2"/>
     </row>
-    <row r="283" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A283" s="2"/>
     </row>
-    <row r="284" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A284" s="2"/>
     </row>
-    <row r="285" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A285" s="2"/>
     </row>
-    <row r="286" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A286" s="2"/>
     </row>
-    <row r="287" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A287" s="2"/>
     </row>
-    <row r="288" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A288" s="2"/>
     </row>
     <row r="289" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -6072,14 +5960,14 @@
     <hyperlink ref="C38" r:id="rId37"/>
     <hyperlink ref="C39" r:id="rId38"/>
     <hyperlink ref="C40" r:id="rId39"/>
-    <hyperlink ref="C41" r:id="rId40"/>
-    <hyperlink ref="C42" r:id="rId41"/>
-    <hyperlink ref="C43" r:id="rId42"/>
-    <hyperlink ref="C44" r:id="rId43"/>
-    <hyperlink ref="C45" r:id="rId44"/>
-    <hyperlink ref="C46" r:id="rId45"/>
-    <hyperlink ref="C47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47" display="https://blog.naver.com/dajung3814"/>
+    <hyperlink ref="B41" r:id="rId40" display="https://blog.naver.com/dajung3814"/>
+    <hyperlink ref="C41" r:id="rId41"/>
+    <hyperlink ref="C42" r:id="rId42"/>
+    <hyperlink ref="C43" r:id="rId43"/>
+    <hyperlink ref="C44" r:id="rId44"/>
+    <hyperlink ref="C45" r:id="rId45"/>
+    <hyperlink ref="C46" r:id="rId46"/>
+    <hyperlink ref="C47" r:id="rId47"/>
     <hyperlink ref="C48" r:id="rId48"/>
     <hyperlink ref="C49" r:id="rId49"/>
     <hyperlink ref="C50" r:id="rId50"/>
@@ -6301,15 +6189,8 @@
     <hyperlink ref="C266" r:id="rId266"/>
     <hyperlink ref="C267" r:id="rId267"/>
     <hyperlink ref="C268" r:id="rId268"/>
-    <hyperlink ref="C269" r:id="rId269"/>
-    <hyperlink ref="C270" r:id="rId270"/>
-    <hyperlink ref="C271" r:id="rId271"/>
-    <hyperlink ref="C272" r:id="rId272"/>
-    <hyperlink ref="C273" r:id="rId273"/>
-    <hyperlink ref="C274" r:id="rId274"/>
-    <hyperlink ref="C275" r:id="rId275"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId276"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId269"/>
 </worksheet>
 </file>